--- a/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AB3D5B-2047-48EF-9A07-72791AC9E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B60762-FD02-4331-9871-A6044A0AF060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3270" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="28800" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Related User Story</t>
   </si>
@@ -164,27 +164,6 @@
     <t>Implement Functionality to Assign/Remove Groups from Project</t>
   </si>
   <si>
-    <t>Manager - Project Board</t>
-  </si>
-  <si>
-    <t>Implement Page to view Tasks on a Kanban board for Project</t>
-  </si>
-  <si>
-    <t>Implement Functionality to view Tasks for a Project</t>
-  </si>
-  <si>
-    <t>Implement Page to add Tasks to Project</t>
-  </si>
-  <si>
-    <t>Implement Functionality to Delete Tasks for a Project</t>
-  </si>
-  <si>
-    <t>Implement Functionality to add Tasks for a Project</t>
-  </si>
-  <si>
-    <t>Implement Functionality to assign employees from my Group to assigned Task</t>
-  </si>
-  <si>
     <t>Implement Database needed for Login</t>
   </si>
   <si>
@@ -194,20 +173,47 @@
     <t>Implement Database needed for Project Management</t>
   </si>
   <si>
-    <t>Implement Database need for Tasks</t>
-  </si>
-  <si>
     <t>Implement Database needed for Group Management</t>
   </si>
   <si>
     <t>Group 4 - Ahmad, Nicholas, Trinidad</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>ER Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Use Case Scenarios</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Admin - Project Management</t>
+  </si>
+  <si>
+    <t>Implement Functionality to Assign/Remove Groups from Project with permission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +225,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,9 +286,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -301,18 +300,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,15 +421,15 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$44:$G$44</c:f>
+              <c:f>Sheet1!$C$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1482,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,41 +1496,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1551,12 +1549,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1569,7 +1569,9 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1582,7 +1584,9 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1592,12 +1596,14 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1610,7 +1616,9 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1623,7 +1631,9 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1636,7 +1646,9 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1649,7 +1661,9 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1662,7 +1676,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1675,7 +1691,9 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1685,15 +1703,20 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1703,10 +1726,15 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1716,12 +1744,17 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1729,12 +1762,17 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
@@ -1742,12 +1780,17 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>24</v>
@@ -1755,12 +1798,17 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>25</v>
@@ -1768,12 +1816,17 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>26</v>
@@ -1781,12 +1834,17 @@
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -1794,12 +1852,17 @@
       <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>38</v>
@@ -1807,66 +1870,91 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -1874,12 +1962,17 @@
       <c r="C28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>34</v>
@@ -1887,12 +1980,17 @@
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -1900,12 +1998,17 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>37</v>
@@ -1913,12 +2016,17 @@
       <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>40</v>
@@ -1926,12 +2034,17 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -1939,12 +2052,17 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -1952,146 +2070,143 @@
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3">
-        <f>SUM(C4:C43)</f>
-        <v>73</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" ref="D44:G44" si="0">SUM(D4:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="0"/>
+      <c r="C41" s="3">
+        <f>SUM(C4:C40)</f>
+        <v>67</v>
+      </c>
+      <c r="D41" s="3">
+        <f>SUM(D4:D40)</f>
+        <v>6</v>
+      </c>
+      <c r="E41" s="3">
+        <f>SUM(E4:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <f>SUM(F4:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f>SUM(G4:G40)</f>
         <v>0</v>
       </c>
     </row>

--- a/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdena1\source\repos\Capstone-Project\Sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B60762-FD02-4331-9871-A6044A0AF060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA32818-406F-4B9C-B601-BED0078EAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="28800" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Related User Story</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
   </si>
   <si>
     <t>Amount Remaining After…</t>
@@ -288,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -309,8 +303,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,23 +413,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$G$41</c:f>
+              <c:f>Sheet1!$C$41:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1180,13 +1166,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>111442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
@@ -1480,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,43 +1477,39 @@
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1537,19 +1519,13 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1558,13 +1534,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1573,13 +1547,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1588,15 +1560,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1605,13 +1575,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1620,13 +1588,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1635,13 +1601,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1650,13 +1614,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1665,13 +1627,11 @@
         <v>2</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1680,13 +1640,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1695,269 +1653,259 @@
         <v>0</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1966,16 +1914,14 @@
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1984,16 +1930,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -2002,16 +1946,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -2020,16 +1962,14 @@
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -2038,16 +1978,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -2056,16 +1994,14 @@
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -2074,38 +2010,34 @@
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" t="s">
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -2114,16 +2046,14 @@
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -2132,34 +2062,30 @@
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2168,26 +2094,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3">
         <f>SUM(C4:C40)</f>
@@ -2195,28 +2117,20 @@
       </c>
       <c r="D41" s="3">
         <f>SUM(D4:D40)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E41" s="3">
         <f>SUM(E4:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <f>SUM(F4:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <f>SUM(G4:G40)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:G2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdena1\source\repos\Capstone-Project\Sprints\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA32818-406F-4B9C-B601-BED0078EAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B47D50-BF6A-48DF-B666-92CE79BF56C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="28800" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Related User Story</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Implement Functionality to Assign/Remove Groups from Project with permission</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Trinidad/Nick</t>
   </si>
 </sst>
 </file>
@@ -294,13 +300,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,12 +419,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$E$41</c:f>
+              <c:f>Sheet1!$C$42:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -1466,53 +1472,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1533,7 +1539,12 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1546,7 +1557,12 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1559,7 +1575,12 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1574,7 +1595,12 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1587,7 +1613,12 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1600,7 +1631,12 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1613,7 +1649,12 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1626,7 +1667,12 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1639,7 +1685,12 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1652,7 +1703,12 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1849,7 +1905,9 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
       <c r="F24" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1923,9 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
       <c r="F25" t="s">
         <v>50</v>
       </c>
@@ -1881,7 +1941,9 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
       <c r="F26" t="s">
         <v>50</v>
       </c>
@@ -1897,7 +1959,9 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
       <c r="F27" t="s">
         <v>50</v>
       </c>
@@ -1913,7 +1977,9 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
       <c r="F28" t="s">
         <v>50</v>
       </c>
@@ -1929,7 +1995,9 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
       <c r="F29" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +2013,9 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +2031,9 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
       <c r="F31" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +2049,9 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
       <c r="F32" t="s">
         <v>50</v>
       </c>
@@ -1993,7 +2067,9 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" t="s">
         <v>50</v>
       </c>
@@ -2009,7 +2085,9 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" t="s">
         <v>50</v>
       </c>
@@ -2027,7 +2105,9 @@
       <c r="D35" s="2">
         <v>2</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
@@ -2045,7 +2125,9 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
       <c r="F36" t="s">
         <v>52</v>
       </c>
@@ -2061,7 +2143,9 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
       <c r="F37" t="s">
         <v>51</v>
       </c>
@@ -2077,7 +2161,9 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
       <c r="F38" t="s">
         <v>50</v>
       </c>
@@ -2093,34 +2179,54 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
       <c r="F39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3">
-        <f>SUM(C4:C40)</f>
-        <v>67</v>
-      </c>
-      <c r="D41" s="3">
-        <f>SUM(D4:D40)</f>
+      <c r="C42" s="3">
+        <f>SUM(C4:C41)</f>
+        <v>68</v>
+      </c>
+      <c r="D42" s="3">
+        <f>SUM(D4:D41)</f>
         <v>24</v>
       </c>
-      <c r="E41" s="3">
-        <f>SUM(E4:E40)</f>
+      <c r="E42" s="3">
+        <f>SUM(E4:E41)</f>
         <v>0</v>
       </c>
     </row>

--- a/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Capstone-Project\Sprints\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B47D50-BF6A-48DF-B666-92CE79BF56C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46FAA95-A1BC-47D9-9542-AAD0AA8694FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="28800" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="285" windowWidth="28800" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Related User Story</t>
   </si>
@@ -207,13 +207,22 @@
   </si>
   <si>
     <t>Trinidad/Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Page to view Projects </t>
+  </si>
+  <si>
+    <t>Manager - Employee Management</t>
+  </si>
+  <si>
+    <t>Manager - Group Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +244,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -288,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -309,6 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,12 +436,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$E$42</c:f>
+              <c:f>Sheet1!$C$54:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -1472,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,11 +2130,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -2135,7 +2150,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -2147,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
@@ -2165,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -2183,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -2201,33 +2216,279 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="3">
+        <f>SUM(C4:C53)</f>
+        <v>82</v>
+      </c>
+      <c r="D54" s="3">
+        <f>SUM(D4:D53)</f>
+        <v>24</v>
+      </c>
+      <c r="E54" s="3">
+        <f>SUM(E4:E53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <f>SUM(C4:C41)</f>
-        <v>68</v>
-      </c>
-      <c r="D42" s="3">
-        <f>SUM(D4:D41)</f>
-        <v>24</v>
-      </c>
-      <c r="E42" s="3">
-        <f>SUM(E4:E41)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
+++ b/Sprints/Sprint1/G4CapstoneProject_Sprint1_Backlog_Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\Documents\GitHub\Capstone-Project\Sprints\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trinidaddena/Downloads/School/Capstone/Capstone-Project/Sprints/Sprint1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46FAA95-A1BC-47D9-9542-AAD0AA8694FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F0E45-F3C5-3A41-8854-02C54C74394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="285" windowWidth="28800" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Related User Story</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>Manager - Group Management</t>
+  </si>
+  <si>
+    <t>T 17 30</t>
+  </si>
+  <si>
+    <t>N 16 25</t>
+  </si>
+  <si>
+    <t>A 18 29</t>
   </si>
 </sst>
 </file>
@@ -316,6 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,51 +1500,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1581,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1599,7 +1608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1637,7 +1646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1655,7 +1664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1673,7 +1682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -1691,7 +1700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1709,7 +1718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1727,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -1765,7 +1774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -1783,7 +1792,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1801,7 +1810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>21</v>
@@ -1819,7 +1828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -1837,7 +1846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -1855,7 +1864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -1873,7 +1882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -1891,7 +1900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>36</v>
@@ -1909,7 +1918,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -1947,7 +1956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -1965,7 +1974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1983,7 +1992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>33</v>
@@ -2001,7 +2010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
@@ -2019,7 +2028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -2037,7 +2046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>35</v>
@@ -2055,7 +2064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>38</v>
@@ -2073,7 +2082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>37</v>
@@ -2091,7 +2100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>39</v>
@@ -2109,7 +2118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>57</v>
@@ -2147,7 +2156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>30</v>
@@ -2165,7 +2174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>31</v>
@@ -2183,7 +2192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>33</v>
@@ -2201,7 +2210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>32</v>
@@ -2219,7 +2228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -2237,7 +2246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
@@ -2271,8 +2280,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2291,7 +2300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
@@ -2433,13 +2442,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="3">
         <f>SUM(C4:C53)</f>
@@ -2454,39 +2463,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
